--- a/chords_config/ТЗ.xlsx
+++ b/chords_config/ТЗ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\Guitar_Chords_GUI_APP\chords_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chibisovi\Desktop\Chibisov\python\GCAPP\chords_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B4FF5C-17D0-4244-9B23-055ED9891DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33825014-58B6-4788-B649-FDE76FF5FEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ТЗ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Задача</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t xml:space="preserve">При нажатии на аккорд в меню песен аккорд должен отображаться в корректном разрешении </t>
+  </si>
+  <si>
+    <t>Настроить картинку в окне увеличения аккорда с нормальным расширением</t>
+  </si>
+  <si>
+    <t>Нужно максимально сжать звуки аккордов с помощью pydub</t>
   </si>
 </sst>
 </file>
@@ -102,14 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -410,22 +414,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="84.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -442,265 +446,220 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
